--- a/WorkBot/main/backend/ordering/Completed Orders/FingerLakes Farms/FingerLakes Farms_Downtown_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/FingerLakes Farms/FingerLakes Farms_Downtown_20250620.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40.50</t>
+          <t>13.50</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.20</t>
+          <t>14.60</t>
         </is>
       </c>
     </row>
